--- a/Statistics for Data Science and Business Analysis/Statistics for Data Science and Business Analysis/S3_L11/2.5.The-Histogram-exercise.xlsx
+++ b/Statistics for Data Science and Business Analysis/Statistics for Data Science and Business Analysis/S3_L11/2.5.The-Histogram-exercise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos de Mi Repositorio\Statistics for Data Science and Business Analysis\Statistics for Data Science and Business Analysis\S3_L11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D5083-1AE2-4643-AA45-5631ACA6F714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The histogram" sheetId="9" r:id="rId1"/>
@@ -17,20 +18,34 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'The histogram'!$B$11:$B$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Fr. distr. table'!$B$11:$B$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'The histogram'!$B$11:$B$30</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'The histogram'!$B$11:$B$30</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'The histogram'!$B$11:$B$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'The histogram'!$D$16:$D$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'The histogram'!$E$16:$E$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'The histogram'!$F$16:$F$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'The histogram'!$G$16:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>The histogram</t>
   </si>
@@ -89,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,11 +194,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -247,6 +271,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,8 +297,709 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cx:spPr>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histogram</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{63973163-CA37-48ED-A157-728EDA99AFD5}" formatIdx="2">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="92.299999999999997"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B181DB7F-990E-4067-9049-DCD74DAAC0BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2581275" y="4343400"/>
+              <a:ext cx="7505700" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,39 +1294,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="6" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="3"/>
-    <col min="11" max="11" width="12.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="8.88671875" style="3"/>
-    <col min="19" max="19" width="10.44140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="10.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="8.85546875" style="3"/>
+    <col min="19" max="19" width="10.42578125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
@@ -600,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
@@ -608,13 +1344,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
@@ -622,26 +1358,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -655,10 +1390,6 @@
       <c r="B11" s="3">
         <v>13</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -668,14 +1399,18 @@
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>68</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -685,14 +1420,19 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>165</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <f>(B30-B11)/E12</f>
+        <v>92.3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -706,10 +1446,10 @@
       <c r="B14" s="3">
         <v>193</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -719,14 +1459,22 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="2:16" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>216</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -740,10 +1488,22 @@
       <c r="B16" s="3">
         <v>228</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="10">
+        <f>B11</f>
+        <v>13</v>
+      </c>
+      <c r="E16" s="11">
+        <f>D16+$E$13</f>
+        <v>105.3</v>
+      </c>
+      <c r="F16" s="10">
+        <f>COUNTIF($B$11:$B$30,"&gt;="&amp;D16)-COUNTIF($B$11:$B$30,"&gt;"&amp;E16)</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <f>F16/$F$26</f>
+        <v>0.1</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -758,10 +1518,22 @@
       <c r="B17" s="3">
         <v>361</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="10">
+        <f>E16</f>
+        <v>105.3</v>
+      </c>
+      <c r="E17" s="11">
+        <f>D17+$E$13</f>
+        <v>197.6</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F25" si="0">COUNTIF($B$11:$B$30,"&gt;="&amp;D17)-COUNTIF($B$11:$B$30,"&gt;"&amp;E17)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" ref="G17:G25" si="1">F17/$F$26</f>
+        <v>0.1</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -776,10 +1548,22 @@
       <c r="B18" s="3">
         <v>470</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="10">
+        <f>E17</f>
+        <v>197.6</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" ref="E18:E25" si="2">D18+$E$13</f>
+        <v>289.89999999999998</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -794,10 +1578,22 @@
       <c r="B19" s="3">
         <v>500</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19:D25" si="3">E18</f>
+        <v>289.89999999999998</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="2"/>
+        <v>382.2</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -812,10 +1608,22 @@
       <c r="B20" s="3">
         <v>529</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="10">
+        <f t="shared" si="3"/>
+        <v>382.2</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>474.5</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -830,10 +1638,22 @@
       <c r="B21" s="3">
         <v>544</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="10">
+        <f t="shared" si="3"/>
+        <v>474.5</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
+        <v>566.79999999999995</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -848,10 +1668,22 @@
       <c r="B22" s="3">
         <v>602</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="10">
+        <f t="shared" si="3"/>
+        <v>566.79999999999995</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>659.09999999999991</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -866,10 +1698,22 @@
       <c r="B23" s="3">
         <v>647</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="10">
+        <f t="shared" si="3"/>
+        <v>659.09999999999991</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
+        <v>751.39999999999986</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -884,10 +1728,22 @@
       <c r="B24" s="3">
         <v>692</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="10">
+        <f t="shared" si="3"/>
+        <v>751.39999999999986</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="2"/>
+        <v>843.69999999999982</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -902,10 +1758,22 @@
       <c r="B25" s="3">
         <v>696</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="28">
+        <f t="shared" si="3"/>
+        <v>843.69999999999982</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="2"/>
+        <v>935.99999999999977</v>
+      </c>
+      <c r="F25" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -920,10 +1788,14 @@
       <c r="B26" s="3">
         <v>699</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="10">
+        <f>SUM(F16:F25)</f>
+        <v>20</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(G16:G25)</f>
+        <v>1</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -1044,48 +1916,51 @@
       <c r="O33" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="B11:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:B30">
     <sortCondition ref="B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="6" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="3"/>
-    <col min="11" max="11" width="12.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" style="3" customWidth="1"/>
-    <col min="15" max="18" width="8.88671875" style="3"/>
-    <col min="19" max="19" width="10.44140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="10.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="3" customWidth="1"/>
+    <col min="15" max="18" width="8.85546875" style="3"/>
+    <col min="19" max="19" width="10.42578125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
@@ -1101,13 +1976,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1115,19 +1990,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +2025,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>68</v>
       </c>
@@ -1169,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>165</v>
       </c>
@@ -1199,7 +2074,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>216</v>
       </c>
